--- a/Data/AgricultureModule_ex.xlsx
+++ b/Data/AgricultureModule_ex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="11_4926B19D68994438B13D6B527A81055062673C94" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{43ED184C-A730-4CCF-AA3D-9FDDEB9BAC8A}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{04991578-0A9F-458A-9880-7893E588E080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCB21ACC-3AE2-44E1-866F-DA4E8906ACEF}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -26,13 +26,11 @@
     <sheet name="GrowthPhases" sheetId="10" r:id="rId11"/>
     <sheet name="PhaseMonth" sheetId="8" r:id="rId12"/>
     <sheet name="CropCoefficient" sheetId="31" r:id="rId13"/>
-    <sheet name="YieldMatrix" sheetId="12" r:id="rId14"/>
-    <sheet name="CropFarmValue" sheetId="35" r:id="rId15"/>
-    <sheet name="GrowthPhases_simple" sheetId="34" r:id="rId16"/>
-    <sheet name="PhaseMonth_simple" sheetId="32" r:id="rId17"/>
+    <sheet name="CropFarmValue" sheetId="35" r:id="rId14"/>
+    <sheet name="YieldMatrix" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FarmingZones!$A$22:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FarmingZones!$A$22:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
   <si>
     <t>units:</t>
   </si>
@@ -169,9 +169,6 @@
     <t>#Irrigation costs</t>
   </si>
   <si>
-    <t>#Water loss rate from allocated</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>culture_crop</t>
   </si>
   <si>
-    <t>SumMaize</t>
-  </si>
-  <si>
     <t>maize</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>source: world bank vol 4 p 116</t>
-  </si>
-  <si>
     <t>aKc</t>
   </si>
   <si>
@@ -292,12 +283,6 @@
     <t>OnlyCols</t>
   </si>
   <si>
-    <t>cassava</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
     <t>http://www.fao.org/docrep/X0490E/x0490e0b.htm</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>FarmTypes</t>
   </si>
   <si>
-    <t>WinMaize</t>
-  </si>
-  <si>
     <t>CulCost</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>https://stats.oecd.org/viewhtml.aspx?datasetcode=HIGH_AGLINK_2016&amp;lang=en</t>
   </si>
   <si>
-    <t xml:space="preserve">REM: </t>
-  </si>
-  <si>
     <t>Return Flows (aCulRturn)</t>
   </si>
   <si>
@@ -454,12 +433,6 @@
     <t>Growth Phases, with yield factor (kY)</t>
   </si>
   <si>
-    <t>this crop coefficient is multiplied by the PhaseMonth</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>CropCoefficient</t>
   </si>
   <si>
@@ -493,15 +466,9 @@
     <t>Industrial</t>
   </si>
   <si>
-    <t>YearMaize</t>
-  </si>
-  <si>
     <t>aIrrigation = 1 if field can be irrigated (0 = rainfed)</t>
   </si>
   <si>
-    <t>SingleMaize</t>
-  </si>
-  <si>
     <t>Crop farm value (aFarmVal)</t>
   </si>
   <si>
@@ -530,6 +497,165 @@
   </si>
   <si>
     <t>WakandaMarket</t>
+  </si>
+  <si>
+    <t>sYields</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>NewRainfed</t>
+  </si>
+  <si>
+    <t>NewIrrigated</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Rainfed</t>
+  </si>
+  <si>
+    <t>MaizeField</t>
+  </si>
+  <si>
+    <t>IrrigEfficiency</t>
+  </si>
+  <si>
+    <t>NewMaize</t>
+  </si>
+  <si>
+    <t>NewMaizeField</t>
+  </si>
+  <si>
+    <t>NewIndustrial</t>
+  </si>
+  <si>
+    <t>#total of conveyance, distribution, and application losses</t>
+  </si>
+  <si>
+    <t>Farm Types will define the yield and crop characteristics (typically there might be one/several farm type per country)</t>
+  </si>
+  <si>
+    <t>Farming zones are the smallest unit of crop production and have a maximum land capacity (aLandCap)</t>
+  </si>
+  <si>
+    <t>They belong to a specific catchment (fzone_catch) and crop market (fzone_cmarket if activated)</t>
+  </si>
+  <si>
+    <t>The farm type (fzone_type) can be rainfed/irrigated, or reflect different levels of inputs (defined in FarmTypes)</t>
+  </si>
+  <si>
+    <t>Restriction of cultivated area per crop can be defined in MaxCulArea</t>
+  </si>
+  <si>
+    <t>This enables restricting cultivated area per crop if activated in the options (Crop choice)</t>
+  </si>
+  <si>
+    <t>Land capacity remains binding for total cultivated area per farming zone</t>
+  </si>
+  <si>
+    <t>If activated fill all farming zones and crops, if no restriction should apply to a crop/farming zone, fill a high value</t>
+  </si>
+  <si>
+    <t>This can be used to reproduce observed cropping patterns</t>
+  </si>
+  <si>
+    <t>Crops are the intermediate or final commodities consumed on markets (if activated)</t>
+  </si>
+  <si>
+    <t>List all crops produced by cultures and demanded by consumers</t>
+  </si>
+  <si>
+    <t>Cultivation costs are on the cultivated area (CulCost sheet) not on the crop production (not included yet) leave 0 or anyvalue</t>
+  </si>
+  <si>
+    <t>Cultures are the activities producing crops as commodities</t>
+  </si>
+  <si>
+    <t>Cultures will define the crop calendar (GrwothPhases, PhaseMonth, CropCoefficient)</t>
+  </si>
+  <si>
+    <t>A same commodity can be produced by different cultures (e.g. Winter and Summer)</t>
+  </si>
+  <si>
+    <t>Return flows is the share of the crop water demand (Kc*ET0) that returns to the river</t>
+  </si>
+  <si>
+    <t>The Yield water response is endogenously calculated in the model using FAO33</t>
+  </si>
+  <si>
+    <t>Farm types can be used to represent different Yields for the same cultures depending on the input/countries</t>
+  </si>
+  <si>
+    <t>Yield sources include:</t>
+  </si>
+  <si>
+    <t>Yields are the potential yield for full water supply</t>
+  </si>
+  <si>
+    <t>Farm types in rows and cultures in columns</t>
+  </si>
+  <si>
+    <t>Unit is $ per hectars</t>
+  </si>
+  <si>
+    <t>Cultivation costs are on the cultivated area and include: labor, seed, fertilizer, land, machines, etc …</t>
+  </si>
+  <si>
+    <t>Fields are association of cultures (in the temporal dimension)</t>
+  </si>
+  <si>
+    <t>A field is a sucession of cultures that can take place within one year (e.g. Summer and Winter crop)</t>
+  </si>
+  <si>
+    <t>Potential sources:</t>
+  </si>
+  <si>
+    <t>kY is the central parameter of the Yield water response function FAO 33</t>
+  </si>
+  <si>
+    <t>Each phase has its own kY and will impact the total Yield</t>
+  </si>
+  <si>
+    <t>The formula used is the additive yield water response function</t>
+  </si>
+  <si>
+    <t>The aPhaseMonth parameter makes the link between months and growth phases of the cultures</t>
+  </si>
+  <si>
+    <t>The user must make sure that the calendar of combined crops do not overlapp</t>
+  </si>
+  <si>
+    <t>REM: the crop coefficient is multiplied by the PhaseMonth parameter</t>
+  </si>
+  <si>
+    <t>The crop coefficient is the central parameter of the FAO 56 formula for crop water demand (demand= Kc*ET0)</t>
+  </si>
+  <si>
+    <t>Cultures in rows and months in columns</t>
+  </si>
+  <si>
+    <t>POTENTIALLY WILLL BE DISCARDED SOON AS NOT RELEVANT ANYMORE</t>
+  </si>
+  <si>
+    <t>Potential sources</t>
+  </si>
+  <si>
+    <t>If markets are inactive, crop production is valuated at farm site with this parameter</t>
+  </si>
+  <si>
+    <t>Unit is tonnes per hectar</t>
+  </si>
+  <si>
+    <t>Downstream catchment (fzone_dscatch) is where the return flow of the farm goes, except if special case it should be the same as fzone_catch</t>
   </si>
 </sst>
 </file>
@@ -542,7 +668,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -605,6 +731,19 @@
     </font>
     <font>
       <i/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Verdana"/>
@@ -777,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +972,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -909,7 +1047,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -930,7 +1067,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -971,7 +1107,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,67 +1118,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="11">
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1393,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1447,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -1456,13 +1561,13 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1470,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -1490,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -1502,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1565,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1588,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1599,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1619,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1631,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1642,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1654,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1665,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1676,8 +1781,11 @@
       <c r="E16">
         <v>2</v>
       </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1688,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -1700,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1711,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -1731,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1743,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1754,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -1766,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1779,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1805,8 +1913,8 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
-        <v>125</v>
+      <c r="A2" s="51" t="s">
+        <v>118</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
@@ -1818,7 +1926,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1829,15 +1937,15 @@
       <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1850,10 +1958,10 @@
       <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1868,8 +1976,11 @@
       <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1883,9 +1994,12 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="131"/>
-      <c r="E7" s="64"/>
+    <row r="7" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1900,7 +2014,10 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E8" s="64"/>
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="63"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1915,11 +2032,11 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1934,11 +2051,11 @@
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1957,7 +2074,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1976,7 +2093,7 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1991,11 +2108,11 @@
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2013,8 +2130,8 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2029,13 +2146,13 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="114" t="s">
-        <v>110</v>
+      <c r="A15" s="111" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2054,7 +2171,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2073,7 +2190,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2092,7 +2209,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2118,13 +2235,13 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2137,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2154,63 +2271,35 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="88">
-        <v>1</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>68</v>
+        <v>157</v>
+      </c>
+      <c r="B23" s="87">
+        <v>1</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>155</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="88">
-        <v>2</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="88">
-        <v>1</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="88">
-        <v>1</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,7 +2311,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2234,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
@@ -2242,7 +2331,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
@@ -2252,230 +2341,238 @@
       <c r="A3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="107"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="107"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="107"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>115</v>
+      <c r="A6" t="s">
+        <v>189</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="107"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="105"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="64"/>
+        <v>191</v>
+      </c>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="107"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="105"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="113"/>
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="107"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="105"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="107"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>116</v>
-      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="107"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="107"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="107"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="112" t="s">
+        <v>108</v>
+      </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="107"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="105"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="107"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="107"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="107"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="107"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="105"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="107"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="E19" s="34"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="107"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="105"/>
     </row>
     <row r="20" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -2483,10 +2580,10 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="66"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2499,7 +2596,7 @@
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="140"/>
+      <c r="D21" s="136"/>
       <c r="E21" s="33"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2507,266 +2604,248 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="101" t="s">
-        <v>131</v>
+      <c r="C22" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="36">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="36">
-        <v>1.5</v>
+      <c r="C24" s="131">
+        <v>1.2</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="65"/>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="36">
-        <v>0.5</v>
+      <c r="C25" s="131">
+        <v>0.6</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="65"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="37">
-        <v>0.2</v>
+      <c r="C26" s="141">
+        <v>0.5</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="65"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="122">
-        <v>0.6</v>
-      </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="121"/>
+      <c r="C27" s="131">
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="118"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="122">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="121"/>
+      <c r="C28" s="131">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="122">
-        <v>0.7</v>
-      </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="121"/>
+      <c r="C29" s="131">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="122">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="121"/>
+      <c r="C30" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="97">
-        <v>0.4</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="65"/>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="65">
-        <v>1.5</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="65"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="65">
-        <v>0.5</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="65"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="8">
-        <v>4</v>
-      </c>
-      <c r="C34" s="65">
-        <v>0.2</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="65"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="1"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="1"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="1"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="1"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="99"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="1"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="99"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="1"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="65"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="99"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="65"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="1"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="65"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="8"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="65"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="65"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="65"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="65"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2775,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2792,7 +2871,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2816,213 +2895,204 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>141</v>
+      <c r="A9" s="113" t="s">
+        <v>104</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>140</v>
+      <c r="A10" s="77" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
+      <c r="A11" s="93" t="s">
+        <v>106</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>111</v>
-      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>112</v>
+      <c r="A13" t="s">
+        <v>188</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
-        <v>113</v>
+      <c r="A14" t="s">
+        <v>132</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="110"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J18" s="61"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3037,66 +3107,65 @@
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="M22" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="N22" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="131" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="10">
-        <v>0</v>
+      <c r="C23" s="11">
+        <v>1</v>
       </c>
       <c r="D23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -3125,24 +3194,23 @@
       <c r="N23" s="11">
         <v>0</v>
       </c>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -3168,14 +3236,13 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
@@ -3185,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3211,414 +3278,237 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>0</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="59">
-        <v>0.67</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="64">
-        <v>0</v>
-      </c>
-      <c r="P27" s="121"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="8">
+        <v>159</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="59">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="64">
-        <v>0</v>
-      </c>
-      <c r="P28" s="121"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="59">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="64">
-        <v>0</v>
-      </c>
-      <c r="P29" s="121"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="27">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="16">
         <v>4</v>
       </c>
-      <c r="C30" s="61">
-        <v>0</v>
-      </c>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-      <c r="E30" s="27">
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
-        <v>1</v>
-      </c>
-      <c r="I30" s="27">
-        <v>1</v>
-      </c>
-      <c r="J30" s="27">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27">
-        <v>0</v>
-      </c>
-      <c r="M30" s="27">
-        <v>0</v>
-      </c>
-      <c r="N30" s="62">
-        <v>0</v>
-      </c>
-      <c r="P30" s="121"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>1</v>
-      </c>
-      <c r="K31" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="L31" s="12">
-        <v>0</v>
-      </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="18">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="N33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16">
-        <v>4</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <v>0</v>
-      </c>
-      <c r="G34" s="27">
-        <v>0</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0</v>
-      </c>
-      <c r="K34" s="27">
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <v>0</v>
-      </c>
-      <c r="M34" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="N34" s="17">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C27:N30">
-    <cfRule type="aboveAverage" dxfId="17" priority="25"/>
-    <cfRule type="aboveAverage" dxfId="16" priority="26"/>
+  <conditionalFormatting sqref="C23:L26">
+    <cfRule type="aboveAverage" dxfId="10" priority="105"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:N34">
-    <cfRule type="aboveAverage" dxfId="15" priority="9"/>
-    <cfRule type="aboveAverage" dxfId="14" priority="10"/>
+  <conditionalFormatting sqref="M23:N26">
+    <cfRule type="aboveAverage" dxfId="8" priority="11"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:N26">
-    <cfRule type="aboveAverage" dxfId="13" priority="93"/>
-    <cfRule type="aboveAverage" dxfId="12" priority="94"/>
+  <conditionalFormatting sqref="C27:L30">
+    <cfRule type="aboveAverage" dxfId="6" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:N30">
+    <cfRule type="aboveAverage" dxfId="4" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3626,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3641,7 +3531,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3650,7 +3540,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3665,191 +3555,191 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="113" t="s">
+        <v>194</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>134</v>
-      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>135</v>
-      </c>
+      <c r="A13" s="77"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="112" t="s">
+        <v>188</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="A17" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -3863,7 +3753,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3920,24 +3810,24 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="1">
         <v>1.05</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>0.5</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="1">
@@ -3953,471 +3843,92 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1">
+        <f>0.8*B23</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:F24" si="0">0.8*C23</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1.05</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B25:M25">
-    <cfRule type="aboveAverage" dxfId="11" priority="61"/>
-    <cfRule type="aboveAverage" dxfId="10" priority="62"/>
+  <conditionalFormatting sqref="H23:M24 B23:F24">
+    <cfRule type="aboveAverage" dxfId="2" priority="102"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:M24">
-    <cfRule type="aboveAverage" dxfId="9" priority="63"/>
-    <cfRule type="aboveAverage" dxfId="8" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:M23">
-    <cfRule type="aboveAverage" dxfId="7" priority="97"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="98"/>
+  <conditionalFormatting sqref="B23:M24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="98">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="125">
-        <v>1</v>
-      </c>
-      <c r="C7" s="126">
-        <v>1</v>
-      </c>
-      <c r="D7" s="126">
-        <v>1</v>
-      </c>
-      <c r="E7" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="123">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="128">
-        <v>0</v>
-      </c>
-      <c r="C11" s="129">
-        <v>1</v>
-      </c>
-      <c r="D11" s="129">
-        <v>1</v>
-      </c>
-      <c r="E11" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="59">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="59">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>9</v>
-      </c>
-      <c r="B15" s="59">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>11</v>
-      </c>
-      <c r="B17" s="123">
-        <v>0</v>
-      </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31">
-        <v>1</v>
-      </c>
-      <c r="E17" s="124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>12</v>
-      </c>
-      <c r="B18" s="59">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>13</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545FDF85-DFE2-4F49-8950-E5D04F9A7154}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="132"/>
+      <c r="A1" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="129"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -4432,10 +3943,10 @@
       <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="132"/>
+      <c r="A2" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="129"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4450,12 +3961,12 @@
       <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="132"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="79"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -4466,32 +3977,32 @@
       <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="63"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -4499,17 +4010,17 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="64"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>152</v>
+      <c r="A6" s="148" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4517,17 +4028,17 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="64"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>153</v>
+      <c r="A7" t="s">
+        <v>199</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4535,15 +4046,14 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4551,35 +4061,29 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="141" t="s">
-        <v>154</v>
-      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="109" t="s">
-        <v>155</v>
-      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4587,14 +4091,17 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="64"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4602,14 +4109,17 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="64"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4617,14 +4127,17 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="64"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4632,15 +4145,17 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="64"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="132"/>
+      <c r="A14" s="137" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4648,15 +4163,17 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="64"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4664,15 +4181,14 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="64"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -4680,15 +4196,15 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="64"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="120"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4696,30 +4212,30 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="64"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="62"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -4730,31 +4246,31 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="144"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="8"/>
@@ -4764,14 +4280,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>69</v>
+      <c r="A22" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4786,12 +4299,9 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="90">
-        <v>150</v>
-      </c>
-      <c r="C23" s="90">
+        <v>136</v>
+      </c>
+      <c r="B23" s="89">
         <v>200</v>
       </c>
       <c r="D23" s="28"/>
@@ -4978,1105 +4488,543 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" location="/dataset/domestic" xr:uid="{50DFDE41-E22F-4968-94A9-C687DFA1DEFA}"/>
+    <hyperlink ref="A15" r:id="rId1" location="/dataset/domestic" xr:uid="{50DFDE41-E22F-4968-94A9-C687DFA1DEFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F45122-815C-4180-A1ED-7D9BA3CE2520}">
-  <dimension ref="A1:L40"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="132" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="132"/>
-    <col min="3" max="3" width="9.25" style="132" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="132" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="132"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="107"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="107"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="107"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="131"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="107"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="107"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="107"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="107"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="107"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="107"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="107"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="107"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="107"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="107"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="107"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="E19" s="34"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="107"/>
-    </row>
-    <row r="20" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="67"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="33"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="134">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="122">
-        <v>1</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="121"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-      <c r="C25" s="97">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{C586AC9F-3CBA-462D-B410-0D548F1029FC}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{E614DFB8-50A5-4932-B944-D52CA6FF28A7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="4" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="96">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="122">
+        <v>1</v>
+      </c>
+      <c r="C7" s="123">
+        <v>1</v>
+      </c>
+      <c r="D7" s="123">
+        <v>1</v>
+      </c>
+      <c r="E7" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="120">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="125">
+        <v>0</v>
+      </c>
+      <c r="C11" s="126">
+        <v>1</v>
+      </c>
+      <c r="D11" s="126">
+        <v>1</v>
+      </c>
+      <c r="E11" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B15" s="58">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="120">
+        <v>0</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B18" s="58">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="P24" s="121"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C24:N24">
-    <cfRule type="aboveAverage" dxfId="5" priority="85"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:N25">
-    <cfRule type="aboveAverage" dxfId="3" priority="87"/>
-    <cfRule type="aboveAverage" dxfId="2" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:N23">
-    <cfRule type="aboveAverage" dxfId="1" priority="101"/>
-    <cfRule type="aboveAverage" dxfId="0" priority="102"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="132" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="129" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1"/>
-      <c r="C1" s="132"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" s="129"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="132"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="129"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="92"/>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="95"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="F7" s="64"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="F8" s="64"/>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="64"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="64"/>
-      <c r="H10" s="93"/>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="90"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="91"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B17"/>
-      <c r="C17" s="132"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="129"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="49"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="F19" s="35"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>39</v>
+      <c r="I20" s="85" t="s">
+        <v>162</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6084,38 +5032,35 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -6123,74 +5068,72 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="92"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J22" s="8"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="139">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B23" s="135">
+        <v>15</v>
+      </c>
+      <c r="C23" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="8">
+        <v>137</v>
+      </c>
+      <c r="H23" s="129">
         <v>0.1</v>
       </c>
       <c r="I23" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6200,10 +5143,112 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="129">
+        <v>0</v>
+      </c>
+      <c r="C24" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="129">
+        <v>0.13</v>
+      </c>
+      <c r="I24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="135">
+        <v>0</v>
+      </c>
+      <c r="C25" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="129">
+        <v>0</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="129">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A22:I23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A22:H23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6213,32 +5258,32 @@
   <dimension ref="A1:AM270"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="63"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -6248,7 +5293,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
@@ -6257,91 +5302,110 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="58"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="64"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="63"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="64"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M7" s="142"/>
+      <c r="A7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="M8" s="142"/>
+      <c r="A8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="65"/>
+      <c r="A9" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M10" s="142"/>
+      <c r="A10" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="M10" s="138"/>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M11" s="142"/>
+      <c r="G11" s="63"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="M12" s="142"/>
+      <c r="A12" s="106"/>
+      <c r="G12" s="63"/>
+      <c r="M12" s="138"/>
     </row>
     <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M13" s="142"/>
+      <c r="G13" s="63"/>
+      <c r="M13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M14" s="142"/>
+      <c r="G14" s="63"/>
+      <c r="M14" s="138"/>
     </row>
     <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="141"/>
-      <c r="M15" s="142"/>
+      <c r="A15" s="137"/>
+      <c r="G15" s="63"/>
+      <c r="M15" s="138"/>
     </row>
     <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
-      <c r="M16" s="142"/>
+      <c r="A16" s="93"/>
+      <c r="G16" s="63"/>
+      <c r="M16" s="138"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="64"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
@@ -6350,39 +5414,37 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="130"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="119"/>
+      <c r="M18" s="116"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="62"/>
+      <c r="Q18" s="61"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A21" s="117" t="s">
-        <v>142</v>
+      <c r="A21" s="114" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>58</v>
+      <c r="A22" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -6401,17 +5463,15 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B23" s="33">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="C23" s="33">
-        <v>100</v>
-      </c>
-      <c r="D23" s="33">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -6427,29 +5487,75 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="132"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="132"/>
-    </row>
-    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="129"/>
+      <c r="AJ23" s="129"/>
+      <c r="AK23" s="129"/>
+      <c r="AL23" s="129"/>
+      <c r="AM23" s="129"/>
+    </row>
+    <row r="24" spans="1:39" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
+        <v>999</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="8">
+        <v>999</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="8">
+        <v>999</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6675,61 +5781,61 @@
     <row r="249" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="250" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="251" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="95"/>
+      <c r="A251" s="93"/>
     </row>
     <row r="252" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="95"/>
+      <c r="A252" s="93"/>
     </row>
     <row r="253" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="95"/>
+      <c r="A253" s="93"/>
     </row>
     <row r="254" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="95"/>
+      <c r="A254" s="93"/>
     </row>
     <row r="255" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="95"/>
+      <c r="A255" s="93"/>
     </row>
     <row r="256" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="95"/>
+      <c r="A256" s="93"/>
     </row>
     <row r="257" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="95"/>
+      <c r="A257" s="93"/>
     </row>
     <row r="258" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="95"/>
+      <c r="A258" s="93"/>
     </row>
     <row r="259" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="95"/>
+      <c r="A259" s="93"/>
     </row>
     <row r="260" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="95"/>
+      <c r="A260" s="93"/>
     </row>
     <row r="261" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="95"/>
+      <c r="A261" s="93"/>
     </row>
     <row r="262" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="95"/>
+      <c r="A262" s="93"/>
     </row>
     <row r="263" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="95"/>
+      <c r="A263" s="93"/>
     </row>
     <row r="264" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="95"/>
+      <c r="A264" s="93"/>
     </row>
     <row r="265" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="95"/>
+      <c r="A265" s="93"/>
     </row>
     <row r="266" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="95"/>
+      <c r="A266" s="93"/>
     </row>
     <row r="267" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="95"/>
+      <c r="A267" s="93"/>
     </row>
     <row r="268" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="95"/>
+      <c r="A268" s="93"/>
     </row>
     <row r="269" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="95"/>
+      <c r="A269" s="93"/>
     </row>
     <row r="270" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6740,10 +5846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6760,195 +5866,201 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
+      <c r="A8" s="142" t="s">
+        <v>174</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -6960,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -6981,14 +6093,14 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
-        <v>69</v>
+      <c r="A23" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="B23" s="32">
         <v>0</v>
@@ -6997,18 +6109,6 @@
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7018,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7039,16 +6139,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="33" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="75"/>
+      <c r="A2" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="74"/>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -7066,7 +6166,7 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="G3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -7084,15 +6184,15 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -7112,11 +6212,11 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7135,11 +6235,13 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -7159,12 +6261,14 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -7183,12 +6287,14 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="145" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -7207,23 +6313,23 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -7231,12 +6337,12 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7255,12 +6361,12 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -7279,6 +6385,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="63"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -7295,7 +6406,11 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="63"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -7312,7 +6427,11 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="75"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="63"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -7329,12 +6448,12 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7353,12 +6472,12 @@
       <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -7381,8 +6500,8 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -7405,8 +6524,8 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="8"/>
@@ -7425,10 +6544,10 @@
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="73"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -7436,7 +6555,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -7445,16 +6564,16 @@
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" s="33" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -7474,20 +6593,20 @@
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>67</v>
+      <c r="B22" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7495,11 +6614,11 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>69</v>
+      <c r="A23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -7510,54 +6629,46 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -7569,30 +6680,6 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7604,7 +6691,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7613,8 +6700,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>92</v>
+      <c r="A1" s="72" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -7640,13 +6727,13 @@
       <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>120</v>
+      <c r="A2" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="33"/>
       <c r="G2" s="8"/>
       <c r="H2" s="33"/>
@@ -7667,7 +6754,7 @@
       <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -7692,21 +6779,21 @@
       <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -7722,16 +6809,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7746,17 +6833,19 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7771,17 +6860,17 @@
       <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -7796,17 +6885,17 @@
       <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -7821,42 +6910,42 @@
       <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="59"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -7875,13 +6964,13 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="59"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -7900,13 +6989,13 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="59"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -7921,17 +7010,17 @@
       <c r="W12" s="33"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -7949,14 +7038,14 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -7975,13 +7064,13 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -8000,13 +7089,13 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -8025,13 +7114,13 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="59"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -8050,13 +7139,13 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -8071,14 +7160,14 @@
       <c r="W18" s="33"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="79"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="8"/>
@@ -8088,7 +7177,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="109"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -8097,16 +7186,16 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -8124,15 +7213,15 @@
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -8146,18 +7235,16 @@
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -8175,17 +7262,15 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B23" s="29">
         <v>0.3</v>
       </c>
-      <c r="C23" s="70">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="70">
-        <v>0.3</v>
-      </c>
+      <c r="C23" s="102">
+        <v>0</v>
+      </c>
+      <c r="D23" s="69"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -8202,6 +7287,16 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="129">
+        <v>0</v>
+      </c>
+      <c r="D24" s="129"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -8218,6 +7313,15 @@
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -8368,10 +7472,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8380,8 +7484,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>84</v>
+      <c r="A1" s="72" t="s">
+        <v>79</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -8406,13 +7510,13 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>119</v>
+      <c r="A2" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="33"/>
       <c r="G2" s="8"/>
       <c r="H2" s="33"/>
@@ -8432,7 +7536,7 @@
       <c r="V2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -8456,20 +7560,20 @@
       <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
       <c r="N4" s="1"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -8481,18 +7585,15 @@
       <c r="V4" s="33"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
       <c r="N5" s="1"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -8504,16 +7605,16 @@
       <c r="V5" s="33"/>
     </row>
     <row r="6" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
       <c r="N6" s="1"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -8525,16 +7626,16 @@
       <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
       <c r="N7" s="1"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -8546,16 +7647,18 @@
       <c r="V7" s="33"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
       <c r="N8" s="1"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -8567,20 +7670,22 @@
       <c r="V8" s="33"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -8588,16 +7693,16 @@
       <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
       <c r="N10" s="1"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -8613,12 +7718,12 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
       <c r="N11" s="1"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -8634,12 +7739,12 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
       <c r="N12" s="1"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -8651,16 +7756,16 @@
       <c r="V12" s="33"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
       <c r="N13" s="1"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -8675,13 +7780,13 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
       <c r="N14" s="1"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -8697,12 +7802,12 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
       <c r="N15" s="1"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -8718,12 +7823,12 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
       <c r="N16" s="1"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -8739,12 +7844,12 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
       <c r="N17" s="1"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -8760,12 +7865,12 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
       <c r="N18" s="1"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -8777,14 +7882,14 @@
       <c r="V18" s="33"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="79"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -8792,7 +7897,7 @@
       <c r="M19" s="33"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -8801,17 +7906,17 @@
       <c r="V19" s="33"/>
     </row>
     <row r="20" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="A20" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -8833,13 +7938,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+        <v>119</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -8857,11 +7962,11 @@
       <c r="V21" s="33"/>
     </row>
     <row r="22" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="52" t="s">
         <v>56</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -8886,23 +7991,23 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="82">
-        <v>1</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="81" t="str">
+        <v>137</v>
+      </c>
+      <c r="B23" s="81">
+        <v>1</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="80" t="str">
         <f t="shared" ref="N23" si="0">IF(AD23&gt;0,AT23/AD23,"")</f>
         <v/>
       </c>
@@ -8915,6 +8020,22 @@
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
     </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8922,222 +8043,364 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="132" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="129"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="129" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="5"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="E8" s="91"/>
+    <row r="1" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="5"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="44"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="41"/>
       <c r="F8" s="29"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="91"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="29"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="91"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="69"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="29"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="69"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="91"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="29"/>
-      <c r="H11" s="70"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="69"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="41" t="s">
+        <v>181</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="91"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="29"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="91"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="137"/>
-      <c r="B14" s="8"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="35" t="s">
+        <v>84</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="27"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="66"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="69" t="s">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="68"/>
-    </row>
-    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>87</v>
+      <c r="D21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="56"/>
       <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="71">
-        <v>1.1234</v>
-      </c>
-      <c r="C23" s="71">
-        <v>1.1234</v>
-      </c>
-      <c r="D23" s="71">
-        <v>15.578200000000001</v>
-      </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="70">
+        <v>4</v>
+      </c>
+      <c r="D23" s="70">
+        <v>0</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:8" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="70">
+        <v>0</v>
+      </c>
+      <c r="D24" s="70">
+        <f>0.85*C23</f>
+        <v>3.4</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:8" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="70">
+        <f>C23</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="70">
+        <f>0.7*C23</f>
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="70">
+        <v>0</v>
+      </c>
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="70">
+        <f>0.7*C24</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="70">
+        <f>0.7*D24</f>
+        <v>2.38</v>
+      </c>
+      <c r="E27" s="70"/>
+    </row>
+    <row r="28" spans="1:8" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="70">
+        <f>C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="D28" s="70">
+        <v>0</v>
+      </c>
+      <c r="E28" s="70"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="70">
+        <f>1.3*C23</f>
+        <v>5.2</v>
+      </c>
+      <c r="D29" s="70">
+        <v>0</v>
+      </c>
+      <c r="E29" s="70"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="70">
+        <f>1.3*C24</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="70">
+        <f>1.3*D24</f>
+        <v>4.42</v>
+      </c>
+      <c r="E30" s="70"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="70">
+        <f>C29</f>
+        <v>5.2</v>
+      </c>
+      <c r="D31" s="70">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9145,10 +8408,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9160,14 +8423,14 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="44"/>
+        <v>87</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F2" s="34"/>
       <c r="H2" s="1"/>
@@ -9177,14 +8440,14 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38" t="s">
-        <v>77</v>
+      <c r="A4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -9195,250 +8458,259 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="18"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="96"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="94"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="96"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="94"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="66"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="96"/>
+      <c r="A6" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="65"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="66"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="96"/>
+      <c r="A7" s="129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="65"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="66"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="96"/>
+      <c r="A8" s="129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="65"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="94"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="102"/>
+      <c r="A9" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="66"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="96"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="65"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="66"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="96"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="65"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="94"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="66"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="96"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="65"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="94"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="66"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="96"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="65"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="94"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="E13" s="138"/>
+      <c r="A13" s="104"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="66"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="96"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="65"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="94"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="138"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="60"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="66"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="96"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="65"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="94"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="66"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="96"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="65"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="94"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="66"/>
-      <c r="R16" s="96"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="65"/>
+      <c r="R16" s="94"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="66"/>
-      <c r="R17" s="96"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="65"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -9450,65 +8722,65 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="C19" s="30"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -9516,18 +8788,16 @@
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -9545,18 +8815,16 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="104">
-        <v>100</v>
-      </c>
-      <c r="C23" s="104">
-        <v>100</v>
-      </c>
-      <c r="D23" s="104">
-        <v>80</v>
-      </c>
+      <c r="A23" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="102">
+        <v>200</v>
+      </c>
+      <c r="C23" s="102">
+        <v>0</v>
+      </c>
+      <c r="D23" s="102"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -9574,6 +8842,16 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>B23*0.7</f>
+        <v>140</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -9590,6 +8868,17 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/AgricultureModule_ex.xlsx
+++ b/Data/AgricultureModule_ex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="11_4926B19D68994438B13D6B527A81055062673C94" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{43ED184C-A730-4CCF-AA3D-9FDDEB9BAC8A}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{04991578-0A9F-458A-9880-7893E588E080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BCE2F64-EA28-40F9-83E0-760D0FA558E4}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -26,13 +26,11 @@
     <sheet name="GrowthPhases" sheetId="10" r:id="rId11"/>
     <sheet name="PhaseMonth" sheetId="8" r:id="rId12"/>
     <sheet name="CropCoefficient" sheetId="31" r:id="rId13"/>
-    <sheet name="YieldMatrix" sheetId="12" r:id="rId14"/>
-    <sheet name="CropFarmValue" sheetId="35" r:id="rId15"/>
-    <sheet name="GrowthPhases_simple" sheetId="34" r:id="rId16"/>
-    <sheet name="PhaseMonth_simple" sheetId="32" r:id="rId17"/>
+    <sheet name="CropFarmValue" sheetId="35" r:id="rId14"/>
+    <sheet name="YieldMatrix" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FarmingZones!$A$22:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FarmingZones!$A$22:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
   <si>
     <t>units:</t>
   </si>
@@ -169,9 +169,6 @@
     <t>#Irrigation costs</t>
   </si>
   <si>
-    <t>#Water loss rate from allocated</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>culture_crop</t>
   </si>
   <si>
-    <t>SumMaize</t>
-  </si>
-  <si>
     <t>maize</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>source: world bank vol 4 p 116</t>
-  </si>
-  <si>
     <t>aKc</t>
   </si>
   <si>
@@ -292,12 +283,6 @@
     <t>OnlyCols</t>
   </si>
   <si>
-    <t>cassava</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
     <t>http://www.fao.org/docrep/X0490E/x0490e0b.htm</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>FarmTypes</t>
   </si>
   <si>
-    <t>WinMaize</t>
-  </si>
-  <si>
     <t>CulCost</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>https://stats.oecd.org/viewhtml.aspx?datasetcode=HIGH_AGLINK_2016&amp;lang=en</t>
   </si>
   <si>
-    <t xml:space="preserve">REM: </t>
-  </si>
-  <si>
     <t>Return Flows (aCulRturn)</t>
   </si>
   <si>
@@ -454,12 +433,6 @@
     <t>Growth Phases, with yield factor (kY)</t>
   </si>
   <si>
-    <t>this crop coefficient is multiplied by the PhaseMonth</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>CropCoefficient</t>
   </si>
   <si>
@@ -493,15 +466,9 @@
     <t>Industrial</t>
   </si>
   <si>
-    <t>YearMaize</t>
-  </si>
-  <si>
     <t>aIrrigation = 1 if field can be irrigated (0 = rainfed)</t>
   </si>
   <si>
-    <t>SingleMaize</t>
-  </si>
-  <si>
     <t>Crop farm value (aFarmVal)</t>
   </si>
   <si>
@@ -530,6 +497,153 @@
   </si>
   <si>
     <t>WakandaMarket</t>
+  </si>
+  <si>
+    <t>NewRainfed</t>
+  </si>
+  <si>
+    <t>NewIrrigated</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Rainfed</t>
+  </si>
+  <si>
+    <t>MaizeField</t>
+  </si>
+  <si>
+    <t>IrrigEfficiency</t>
+  </si>
+  <si>
+    <t>NewMaize</t>
+  </si>
+  <si>
+    <t>NewMaizeField</t>
+  </si>
+  <si>
+    <t>NewIndustrial</t>
+  </si>
+  <si>
+    <t>#total of conveyance, distribution, and application losses</t>
+  </si>
+  <si>
+    <t>Farm Types will define the yield and crop characteristics (typically there might be one/several farm type per country)</t>
+  </si>
+  <si>
+    <t>Farming zones are the smallest unit of crop production and have a maximum land capacity (aLandCap)</t>
+  </si>
+  <si>
+    <t>They belong to a specific catchment (fzone_catch) and crop market (fzone_cmarket if activated)</t>
+  </si>
+  <si>
+    <t>The farm type (fzone_type) can be rainfed/irrigated, or reflect different levels of inputs (defined in FarmTypes)</t>
+  </si>
+  <si>
+    <t>Restriction of cultivated area per crop can be defined in MaxCulArea</t>
+  </si>
+  <si>
+    <t>This enables restricting cultivated area per crop if activated in the options (Crop choice)</t>
+  </si>
+  <si>
+    <t>Land capacity remains binding for total cultivated area per farming zone</t>
+  </si>
+  <si>
+    <t>If activated fill all farming zones and crops, if no restriction should apply to a crop/farming zone, fill a high value</t>
+  </si>
+  <si>
+    <t>This can be used to reproduce observed cropping patterns</t>
+  </si>
+  <si>
+    <t>Crops are the intermediate or final commodities consumed on markets (if activated)</t>
+  </si>
+  <si>
+    <t>List all crops produced by cultures and demanded by consumers</t>
+  </si>
+  <si>
+    <t>Cultivation costs are on the cultivated area (CulCost sheet) not on the crop production (not included yet) leave 0 or anyvalue</t>
+  </si>
+  <si>
+    <t>Cultures are the activities producing crops as commodities</t>
+  </si>
+  <si>
+    <t>Cultures will define the crop calendar (GrwothPhases, PhaseMonth, CropCoefficient)</t>
+  </si>
+  <si>
+    <t>A same commodity can be produced by different cultures (e.g. Winter and Summer)</t>
+  </si>
+  <si>
+    <t>Return flows is the share of the crop water demand (Kc*ET0) that returns to the river</t>
+  </si>
+  <si>
+    <t>The Yield water response is endogenously calculated in the model using FAO33</t>
+  </si>
+  <si>
+    <t>Farm types can be used to represent different Yields for the same cultures depending on the input/countries</t>
+  </si>
+  <si>
+    <t>Yield sources include:</t>
+  </si>
+  <si>
+    <t>Yields are the potential yield for full water supply</t>
+  </si>
+  <si>
+    <t>Farm types in rows and cultures in columns</t>
+  </si>
+  <si>
+    <t>Unit is $ per hectars</t>
+  </si>
+  <si>
+    <t>Cultivation costs are on the cultivated area and include: labor, seed, fertilizer, land, machines, etc …</t>
+  </si>
+  <si>
+    <t>Fields are association of cultures (in the temporal dimension)</t>
+  </si>
+  <si>
+    <t>A field is a sucession of cultures that can take place within one year (e.g. Summer and Winter crop)</t>
+  </si>
+  <si>
+    <t>Potential sources:</t>
+  </si>
+  <si>
+    <t>kY is the central parameter of the Yield water response function FAO 33</t>
+  </si>
+  <si>
+    <t>Each phase has its own kY and will impact the total Yield</t>
+  </si>
+  <si>
+    <t>The formula used is the additive yield water response function</t>
+  </si>
+  <si>
+    <t>The aPhaseMonth parameter makes the link between months and growth phases of the cultures</t>
+  </si>
+  <si>
+    <t>The user must make sure that the calendar of combined crops do not overlapp</t>
+  </si>
+  <si>
+    <t>REM: the crop coefficient is multiplied by the PhaseMonth parameter</t>
+  </si>
+  <si>
+    <t>The crop coefficient is the central parameter of the FAO 56 formula for crop water demand (demand= Kc*ET0)</t>
+  </si>
+  <si>
+    <t>Cultures in rows and months in columns</t>
+  </si>
+  <si>
+    <t>POTENTIALLY WILLL BE DISCARDED SOON AS NOT RELEVANT ANYMORE</t>
+  </si>
+  <si>
+    <t>Potential sources</t>
+  </si>
+  <si>
+    <t>If markets are inactive, crop production is valuated at farm site with this parameter</t>
+  </si>
+  <si>
+    <t>Unit is tonnes per hectar</t>
+  </si>
+  <si>
+    <t>Downstream catchment (fzone_dscatch) is where the return flow of the farm goes, except if special case it should be the same as fzone_catch</t>
   </si>
 </sst>
 </file>
@@ -542,7 +656,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -605,6 +719,19 @@
     </font>
     <font>
       <i/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Verdana"/>
@@ -777,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +960,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -909,7 +1035,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -930,7 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -971,7 +1095,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,67 +1106,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="11">
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1394,7 +1487,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1447,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -1456,13 +1549,13 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1470,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -1490,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -1502,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1565,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1588,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1599,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1619,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1631,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1642,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1654,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1665,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1677,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1688,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -1700,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1711,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -1731,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1743,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1754,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -1766,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1779,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1805,8 +1898,8 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
-        <v>125</v>
+      <c r="A2" s="51" t="s">
+        <v>118</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
@@ -1818,7 +1911,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1829,15 +1922,15 @@
       <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1850,10 +1943,10 @@
       <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1868,8 +1961,11 @@
       <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1883,9 +1979,12 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="131"/>
-      <c r="E7" s="64"/>
+    <row r="7" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1900,7 +1999,10 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E8" s="64"/>
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="63"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1915,11 +2017,11 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1934,11 +2036,11 @@
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1957,7 +2059,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1976,7 +2078,7 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1991,11 +2093,11 @@
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2013,8 +2115,8 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2029,13 +2131,13 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="114" t="s">
-        <v>110</v>
+      <c r="A15" s="111" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2054,7 +2156,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2073,7 +2175,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2092,7 +2194,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2118,13 +2220,13 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2137,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2154,63 +2256,35 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="88">
-        <v>1</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="B23" s="87">
+        <v>1</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>151</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="88">
-        <v>2</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="88">
-        <v>1</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="88">
-        <v>1</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,7 +2296,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2234,7 +2308,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
@@ -2242,7 +2316,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
@@ -2252,230 +2326,238 @@
       <c r="A3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="107"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="107"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="107"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>115</v>
+      <c r="A6" t="s">
+        <v>185</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="107"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="105"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="64"/>
+        <v>187</v>
+      </c>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="107"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="105"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="113"/>
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="107"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="105"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="107"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>116</v>
-      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="107"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="107"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="107"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="112" t="s">
+        <v>108</v>
+      </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="107"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="105"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="107"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="107"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="107"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="107"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="105"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="107"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="E19" s="34"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="107"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="105"/>
     </row>
     <row r="20" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -2483,10 +2565,10 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="66"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2499,7 +2581,7 @@
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="140"/>
+      <c r="D21" s="136"/>
       <c r="E21" s="33"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2507,266 +2589,248 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="101" t="s">
-        <v>131</v>
+      <c r="C22" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="36">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="36">
-        <v>1.5</v>
+      <c r="C24" s="131">
+        <v>1.2</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="65"/>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="36">
-        <v>0.5</v>
+      <c r="C25" s="131">
+        <v>0.6</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="65"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="37">
-        <v>0.2</v>
+      <c r="C26" s="141">
+        <v>0.5</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="65"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="122">
-        <v>0.6</v>
-      </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="121"/>
+      <c r="C27" s="131">
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="118"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="122">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="121"/>
+      <c r="C28" s="131">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="122">
-        <v>0.7</v>
-      </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="121"/>
+      <c r="C29" s="131">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="122">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="121"/>
+      <c r="C30" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="97">
-        <v>0.4</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="65"/>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="65">
-        <v>1.5</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="65"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="65">
-        <v>0.5</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="65"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="8">
-        <v>4</v>
-      </c>
-      <c r="C34" s="65">
-        <v>0.2</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="65"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="1"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="1"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="1"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="1"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="99"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="1"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="99"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="1"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="65"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="99"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="65"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="1"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="65"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="8"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="65"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="65"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="65"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="65"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2775,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2792,7 +2856,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2816,213 +2880,204 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>141</v>
+      <c r="A9" s="113" t="s">
+        <v>104</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>140</v>
+      <c r="A10" s="77" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
+      <c r="A11" s="93" t="s">
+        <v>106</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>111</v>
-      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>112</v>
+      <c r="A13" t="s">
+        <v>184</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
-        <v>113</v>
+      <c r="A14" t="s">
+        <v>132</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="110"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J18" s="61"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3037,66 +3092,65 @@
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="M22" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="N22" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="131" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="10">
-        <v>0</v>
+      <c r="C23" s="11">
+        <v>1</v>
       </c>
       <c r="D23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -3125,24 +3179,23 @@
       <c r="N23" s="11">
         <v>0</v>
       </c>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -3168,14 +3221,13 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
@@ -3185,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3211,414 +3263,237 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>0</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="59">
-        <v>0.67</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="64">
-        <v>0</v>
-      </c>
-      <c r="P27" s="121"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="8">
+        <v>155</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="59">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="64">
-        <v>0</v>
-      </c>
-      <c r="P28" s="121"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="59">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="64">
-        <v>0</v>
-      </c>
-      <c r="P29" s="121"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="27">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="16">
         <v>4</v>
       </c>
-      <c r="C30" s="61">
-        <v>0</v>
-      </c>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-      <c r="E30" s="27">
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
-        <v>1</v>
-      </c>
-      <c r="I30" s="27">
-        <v>1</v>
-      </c>
-      <c r="J30" s="27">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27">
-        <v>0</v>
-      </c>
-      <c r="M30" s="27">
-        <v>0</v>
-      </c>
-      <c r="N30" s="62">
-        <v>0</v>
-      </c>
-      <c r="P30" s="121"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>1</v>
-      </c>
-      <c r="K31" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="L31" s="12">
-        <v>0</v>
-      </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="18">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="N33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16">
-        <v>4</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <v>0</v>
-      </c>
-      <c r="G34" s="27">
-        <v>0</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0</v>
-      </c>
-      <c r="K34" s="27">
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <v>0</v>
-      </c>
-      <c r="M34" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="N34" s="17">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C27:N30">
-    <cfRule type="aboveAverage" dxfId="17" priority="25"/>
-    <cfRule type="aboveAverage" dxfId="16" priority="26"/>
+  <conditionalFormatting sqref="C23:L26">
+    <cfRule type="aboveAverage" dxfId="10" priority="105"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:N34">
-    <cfRule type="aboveAverage" dxfId="15" priority="9"/>
-    <cfRule type="aboveAverage" dxfId="14" priority="10"/>
+  <conditionalFormatting sqref="M23:N26">
+    <cfRule type="aboveAverage" dxfId="8" priority="11"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:N26">
-    <cfRule type="aboveAverage" dxfId="13" priority="93"/>
-    <cfRule type="aboveAverage" dxfId="12" priority="94"/>
+  <conditionalFormatting sqref="C27:L30">
+    <cfRule type="aboveAverage" dxfId="6" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:N30">
+    <cfRule type="aboveAverage" dxfId="4" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3626,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3641,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3650,7 +3525,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3665,191 +3540,191 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
       <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="33"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="63"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="113" t="s">
+        <v>190</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>134</v>
-      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>135</v>
-      </c>
+      <c r="A13" s="77"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="112" t="s">
+        <v>184</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="A17" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -3863,7 +3738,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3920,24 +3795,24 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="1">
         <v>1.05</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>0.5</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="1">
@@ -3953,471 +3828,92 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="1">
+        <f>0.8*B23</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:F24" si="0">0.8*C23</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1.05</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B25:M25">
-    <cfRule type="aboveAverage" dxfId="11" priority="61"/>
-    <cfRule type="aboveAverage" dxfId="10" priority="62"/>
+  <conditionalFormatting sqref="H23:M24 B23:F24">
+    <cfRule type="aboveAverage" dxfId="2" priority="102"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:M24">
-    <cfRule type="aboveAverage" dxfId="9" priority="63"/>
-    <cfRule type="aboveAverage" dxfId="8" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:M23">
-    <cfRule type="aboveAverage" dxfId="7" priority="97"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="98"/>
+  <conditionalFormatting sqref="B23:M24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="98">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="125">
-        <v>1</v>
-      </c>
-      <c r="C7" s="126">
-        <v>1</v>
-      </c>
-      <c r="D7" s="126">
-        <v>1</v>
-      </c>
-      <c r="E7" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="123">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="128">
-        <v>0</v>
-      </c>
-      <c r="C11" s="129">
-        <v>1</v>
-      </c>
-      <c r="D11" s="129">
-        <v>1</v>
-      </c>
-      <c r="E11" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="59">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="59">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>9</v>
-      </c>
-      <c r="B15" s="59">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>11</v>
-      </c>
-      <c r="B17" s="123">
-        <v>0</v>
-      </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31">
-        <v>1</v>
-      </c>
-      <c r="E17" s="124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>12</v>
-      </c>
-      <c r="B18" s="59">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>13</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545FDF85-DFE2-4F49-8950-E5D04F9A7154}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="132"/>
+      <c r="A1" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="129"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -4432,10 +3928,10 @@
       <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="132"/>
+      <c r="A2" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="129"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4450,12 +3946,12 @@
       <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="132"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="79"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -4466,32 +3962,32 @@
       <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="63"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -4499,17 +3995,17 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="64"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>152</v>
+      <c r="A6" s="148" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4517,17 +4013,17 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="64"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>153</v>
+      <c r="A7" t="s">
+        <v>195</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4535,15 +4031,14 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4551,35 +4046,29 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="141" t="s">
-        <v>154</v>
-      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="109" t="s">
-        <v>155</v>
-      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4587,14 +4076,17 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="64"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4602,14 +4094,17 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="64"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4617,14 +4112,17 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="64"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4632,15 +4130,17 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="64"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="132"/>
+      <c r="A14" s="137" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4648,15 +4148,17 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="64"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4664,15 +4166,14 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="64"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -4680,15 +4181,15 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="64"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="120"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4696,30 +4197,30 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="64"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="62"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -4730,31 +4231,31 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="144"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="8"/>
@@ -4764,14 +4265,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>69</v>
+      <c r="A22" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4786,12 +4284,9 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="90">
-        <v>150</v>
-      </c>
-      <c r="C23" s="90">
+        <v>136</v>
+      </c>
+      <c r="B23" s="89">
         <v>200</v>
       </c>
       <c r="D23" s="28"/>
@@ -4978,1105 +4473,543 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" location="/dataset/domestic" xr:uid="{50DFDE41-E22F-4968-94A9-C687DFA1DEFA}"/>
+    <hyperlink ref="A15" r:id="rId1" location="/dataset/domestic" xr:uid="{50DFDE41-E22F-4968-94A9-C687DFA1DEFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F45122-815C-4180-A1ED-7D9BA3CE2520}">
-  <dimension ref="A1:L40"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="132" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="132"/>
-    <col min="3" max="3" width="9.25" style="132" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="132" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="132"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="107"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="107"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="107"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="131"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="107"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="107"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="107"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="107"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="107"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="107"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="107"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="107"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="107"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="107"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="107"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="E19" s="34"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="107"/>
-    </row>
-    <row r="20" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="67"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="33"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="134">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="122">
-        <v>1</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="121"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-      <c r="C25" s="97">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{C586AC9F-3CBA-462D-B410-0D548F1029FC}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{E614DFB8-50A5-4932-B944-D52CA6FF28A7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="4" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="96">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="122">
+        <v>1</v>
+      </c>
+      <c r="C7" s="123">
+        <v>1</v>
+      </c>
+      <c r="D7" s="123">
+        <v>1</v>
+      </c>
+      <c r="E7" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="120">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="125">
+        <v>0</v>
+      </c>
+      <c r="C11" s="126">
+        <v>1</v>
+      </c>
+      <c r="D11" s="126">
+        <v>1</v>
+      </c>
+      <c r="E11" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B15" s="58">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="120">
+        <v>0</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B18" s="58">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="P24" s="121"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C24:N24">
-    <cfRule type="aboveAverage" dxfId="5" priority="85"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:N25">
-    <cfRule type="aboveAverage" dxfId="3" priority="87"/>
-    <cfRule type="aboveAverage" dxfId="2" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:N23">
-    <cfRule type="aboveAverage" dxfId="1" priority="101"/>
-    <cfRule type="aboveAverage" dxfId="0" priority="102"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="132" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="129" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1"/>
-      <c r="C1" s="132"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" s="129"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="132"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="129"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="92"/>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="95"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="F7" s="64"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="F8" s="64"/>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="64"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="64"/>
-      <c r="H10" s="93"/>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="90"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="91"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B17"/>
-      <c r="C17" s="132"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="129"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="49"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="F19" s="35"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>39</v>
+      <c r="I20" s="85" t="s">
+        <v>158</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6084,38 +5017,35 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -6123,74 +5053,72 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="92"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J22" s="8"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="139">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B23" s="135">
+        <v>15</v>
+      </c>
+      <c r="C23" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="8">
+        <v>137</v>
+      </c>
+      <c r="H23" s="129">
         <v>0.1</v>
       </c>
       <c r="I23" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6200,10 +5128,112 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="129">
+        <v>0</v>
+      </c>
+      <c r="C24" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="129">
+        <v>0.13</v>
+      </c>
+      <c r="I24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="135">
+        <v>0</v>
+      </c>
+      <c r="C25" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="129">
+        <v>0</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="129">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A22:I23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A22:H23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6213,32 +5243,32 @@
   <dimension ref="A1:AM270"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="63"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -6248,7 +5278,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
@@ -6257,91 +5287,110 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="58"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="64"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="63"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="64"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M7" s="142"/>
+      <c r="A7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="M8" s="142"/>
+      <c r="A8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="65"/>
+      <c r="A9" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M10" s="142"/>
+      <c r="A10" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="M10" s="138"/>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M11" s="142"/>
+      <c r="G11" s="63"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="M12" s="142"/>
+      <c r="A12" s="106"/>
+      <c r="G12" s="63"/>
+      <c r="M12" s="138"/>
     </row>
     <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M13" s="142"/>
+      <c r="G13" s="63"/>
+      <c r="M13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="M14" s="142"/>
+      <c r="G14" s="63"/>
+      <c r="M14" s="138"/>
     </row>
     <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="141"/>
-      <c r="M15" s="142"/>
+      <c r="A15" s="137"/>
+      <c r="G15" s="63"/>
+      <c r="M15" s="138"/>
     </row>
     <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
-      <c r="M16" s="142"/>
+      <c r="A16" s="93"/>
+      <c r="G16" s="63"/>
+      <c r="M16" s="138"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="64"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
@@ -6350,39 +5399,37 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="130"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="119"/>
+      <c r="M18" s="116"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="62"/>
+      <c r="Q18" s="61"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A21" s="117" t="s">
-        <v>142</v>
+      <c r="A21" s="114" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>58</v>
+      <c r="A22" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -6401,17 +5448,15 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B23" s="33">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="C23" s="33">
-        <v>100</v>
-      </c>
-      <c r="D23" s="33">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -6427,29 +5472,75 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="132"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="132"/>
-    </row>
-    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="129"/>
+      <c r="AJ23" s="129"/>
+      <c r="AK23" s="129"/>
+      <c r="AL23" s="129"/>
+      <c r="AM23" s="129"/>
+    </row>
+    <row r="24" spans="1:39" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
+        <v>999</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="8">
+        <v>999</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="8">
+        <v>999</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6675,61 +5766,61 @@
     <row r="249" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="250" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="251" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="95"/>
+      <c r="A251" s="93"/>
     </row>
     <row r="252" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="95"/>
+      <c r="A252" s="93"/>
     </row>
     <row r="253" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="95"/>
+      <c r="A253" s="93"/>
     </row>
     <row r="254" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="95"/>
+      <c r="A254" s="93"/>
     </row>
     <row r="255" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="95"/>
+      <c r="A255" s="93"/>
     </row>
     <row r="256" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="95"/>
+      <c r="A256" s="93"/>
     </row>
     <row r="257" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="95"/>
+      <c r="A257" s="93"/>
     </row>
     <row r="258" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="95"/>
+      <c r="A258" s="93"/>
     </row>
     <row r="259" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="95"/>
+      <c r="A259" s="93"/>
     </row>
     <row r="260" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="95"/>
+      <c r="A260" s="93"/>
     </row>
     <row r="261" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="95"/>
+      <c r="A261" s="93"/>
     </row>
     <row r="262" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="95"/>
+      <c r="A262" s="93"/>
     </row>
     <row r="263" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="95"/>
+      <c r="A263" s="93"/>
     </row>
     <row r="264" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="95"/>
+      <c r="A264" s="93"/>
     </row>
     <row r="265" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="95"/>
+      <c r="A265" s="93"/>
     </row>
     <row r="266" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="95"/>
+      <c r="A266" s="93"/>
     </row>
     <row r="267" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="95"/>
+      <c r="A267" s="93"/>
     </row>
     <row r="268" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="95"/>
+      <c r="A268" s="93"/>
     </row>
     <row r="269" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="95"/>
+      <c r="A269" s="93"/>
     </row>
     <row r="270" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6740,10 +5831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6760,195 +5851,201 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
+      <c r="A8" s="142" t="s">
+        <v>170</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -6960,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -6981,14 +6078,14 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
-        <v>69</v>
+      <c r="A23" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="B23" s="32">
         <v>0</v>
@@ -6997,18 +6094,6 @@
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7018,10 +6103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7039,16 +6124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="33" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="75"/>
+      <c r="A2" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="74"/>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -7066,7 +6151,7 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="G3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -7084,15 +6169,15 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -7112,11 +6197,11 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7135,11 +6220,13 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -7159,12 +6246,14 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -7183,12 +6272,14 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -7207,23 +6298,23 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -7231,12 +6322,12 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7255,12 +6346,12 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -7279,6 +6370,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="63"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -7295,7 +6391,11 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="63"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -7312,7 +6412,11 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="75"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="63"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -7329,12 +6433,12 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7353,12 +6457,12 @@
       <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -7381,8 +6485,8 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -7405,8 +6509,8 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="8"/>
@@ -7425,10 +6529,10 @@
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="73"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -7436,7 +6540,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -7445,16 +6549,16 @@
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" s="33" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -7474,20 +6578,20 @@
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>67</v>
+      <c r="B22" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7495,11 +6599,11 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>69</v>
+      <c r="A23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -7510,54 +6614,46 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -7569,30 +6665,6 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7604,7 +6676,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7613,8 +6685,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>92</v>
+      <c r="A1" s="72" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -7640,13 +6712,13 @@
       <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>120</v>
+      <c r="A2" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="33"/>
       <c r="G2" s="8"/>
       <c r="H2" s="33"/>
@@ -7667,7 +6739,7 @@
       <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -7692,21 +6764,21 @@
       <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -7722,16 +6794,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7746,17 +6818,19 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7771,17 +6845,17 @@
       <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -7796,17 +6870,17 @@
       <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -7821,42 +6895,42 @@
       <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="59"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -7875,13 +6949,13 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="59"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -7900,13 +6974,13 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="59"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -7921,17 +6995,17 @@
       <c r="W12" s="33"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -7949,14 +7023,14 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -7975,13 +7049,13 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -8000,13 +7074,13 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -8025,13 +7099,13 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="59"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -8050,13 +7124,13 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -8071,14 +7145,14 @@
       <c r="W18" s="33"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="79"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="8"/>
@@ -8088,7 +7162,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="109"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -8097,16 +7171,16 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -8124,15 +7198,15 @@
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -8146,18 +7220,16 @@
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -8175,17 +7247,15 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B23" s="29">
         <v>0.3</v>
       </c>
-      <c r="C23" s="70">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="70">
-        <v>0.3</v>
-      </c>
+      <c r="C23" s="102">
+        <v>0</v>
+      </c>
+      <c r="D23" s="69"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -8202,6 +7272,16 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="129">
+        <v>0</v>
+      </c>
+      <c r="D24" s="129"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -8218,6 +7298,15 @@
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -8368,10 +7457,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8380,8 +7469,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>84</v>
+      <c r="A1" s="72" t="s">
+        <v>79</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -8406,13 +7495,13 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>119</v>
+      <c r="A2" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="33"/>
       <c r="G2" s="8"/>
       <c r="H2" s="33"/>
@@ -8432,7 +7521,7 @@
       <c r="V2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -8456,20 +7545,20 @@
       <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
-        <v>76</v>
+      <c r="A4" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="76" t="s">
-        <v>77</v>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
       <c r="N4" s="1"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -8481,18 +7570,15 @@
       <c r="V4" s="33"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="59"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
       <c r="N5" s="1"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -8504,16 +7590,16 @@
       <c r="V5" s="33"/>
     </row>
     <row r="6" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="63"/>
       <c r="N6" s="1"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -8525,16 +7611,16 @@
       <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="63"/>
       <c r="N7" s="1"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -8546,16 +7632,18 @@
       <c r="V7" s="33"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="63"/>
       <c r="N8" s="1"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -8567,20 +7655,22 @@
       <c r="V8" s="33"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="111"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="108"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -8588,16 +7678,16 @@
       <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="63"/>
       <c r="N10" s="1"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -8613,12 +7703,12 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="63"/>
       <c r="N11" s="1"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -8634,12 +7724,12 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
       <c r="N12" s="1"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -8651,16 +7741,16 @@
       <c r="V12" s="33"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
       <c r="N13" s="1"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -8675,13 +7765,13 @@
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
       <c r="N14" s="1"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -8697,12 +7787,12 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
       <c r="N15" s="1"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -8718,12 +7808,12 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="64"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
       <c r="N16" s="1"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -8739,12 +7829,12 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
       <c r="N17" s="1"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -8760,12 +7850,12 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
       <c r="N18" s="1"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -8777,14 +7867,14 @@
       <c r="V18" s="33"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="79"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -8792,7 +7882,7 @@
       <c r="M19" s="33"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -8801,17 +7891,17 @@
       <c r="V19" s="33"/>
     </row>
     <row r="20" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="A20" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -8833,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+        <v>119</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -8857,11 +7947,11 @@
       <c r="V21" s="33"/>
     </row>
     <row r="22" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="52" t="s">
         <v>56</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -8886,23 +7976,23 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="82">
-        <v>1</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="81" t="str">
+        <v>137</v>
+      </c>
+      <c r="B23" s="81">
+        <v>1</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="80" t="str">
         <f t="shared" ref="N23" si="0">IF(AD23&gt;0,AT23/AD23,"")</f>
         <v/>
       </c>
@@ -8915,6 +8005,22 @@
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
     </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8922,28 +8028,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="132" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="129" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E2"/>
     </row>
@@ -8952,105 +8058,129 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42"/>
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="E8" s="91"/>
+        <v>176</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="H8" s="70"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="91"/>
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="H9" s="70"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="91"/>
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="H10" s="70"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="91"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="H11" s="70"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="41" t="s">
+        <v>177</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="91"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="29"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
+      <c r="A13" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="91"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="29"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="137"/>
+      <c r="A14" s="35" t="s">
+        <v>84</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -9058,24 +8188,27 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="42"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -9083,12 +8216,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="66"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -9096,48 +8229,74 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="71">
-        <v>1.1234</v>
-      </c>
-      <c r="C23" s="71">
-        <v>1.1234</v>
-      </c>
-      <c r="D23" s="71">
-        <v>15.578200000000001</v>
-      </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+        <v>137</v>
+      </c>
+      <c r="B23" s="70">
+        <v>4</v>
+      </c>
+      <c r="C23" s="70">
+        <v>0</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="70">
+        <v>0</v>
+      </c>
+      <c r="C24" s="70">
+        <f>0.85*B23</f>
+        <v>3.4</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="70">
+        <f>B23</f>
+        <v>4</v>
+      </c>
+      <c r="C25" s="70">
+        <v>0</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9145,10 +8304,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9160,14 +8319,14 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="44"/>
+        <v>87</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F2" s="34"/>
       <c r="H2" s="1"/>
@@ -9177,14 +8336,14 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38" t="s">
-        <v>77</v>
+      <c r="A4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -9195,250 +8354,259 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="18"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="96"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="94"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="96"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="94"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="66"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="96"/>
+      <c r="A6" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="65"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="66"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="96"/>
+      <c r="A7" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="65"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="66"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="96"/>
+      <c r="A8" s="129" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="65"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="94"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="102"/>
+      <c r="A9" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="66"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="96"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="65"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="66"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="96"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="65"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="94"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="66"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="96"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="65"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="94"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="66"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="96"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="65"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="94"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="E13" s="138"/>
+      <c r="A13" s="104"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="66"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="96"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="65"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="94"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="138"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="60"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="66"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="96"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="65"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="94"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="66"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="96"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="65"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="94"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="66"/>
-      <c r="R16" s="96"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="65"/>
+      <c r="R16" s="94"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="66"/>
-      <c r="R17" s="96"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="65"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -9450,65 +8618,65 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="C19" s="30"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -9516,18 +8684,16 @@
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -9545,18 +8711,16 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="104">
-        <v>100</v>
-      </c>
-      <c r="C23" s="104">
-        <v>100</v>
-      </c>
-      <c r="D23" s="104">
-        <v>80</v>
-      </c>
+      <c r="A23" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="102">
+        <v>200</v>
+      </c>
+      <c r="C23" s="102">
+        <v>0</v>
+      </c>
+      <c r="D23" s="102"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -9574,6 +8738,16 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>B23*0.7</f>
+        <v>140</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -9590,6 +8764,17 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
